--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2808.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2808.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169766632630704</v>
+        <v>0.9041280746459961</v>
       </c>
       <c r="B1">
-        <v>2.441261654217581</v>
+        <v>1.698358178138733</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.342281341552734</v>
       </c>
       <c r="D1">
-        <v>2.365395523741908</v>
+        <v>2.978245258331299</v>
       </c>
       <c r="E1">
-        <v>1.231733676429006</v>
+        <v>0.5283113718032837</v>
       </c>
     </row>
   </sheetData>
